--- a/src/TestData/TestData.xlsx
+++ b/src/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girish\eclipse-workspace\DOCNU\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2E45BF5-97BF-45C2-94BE-C09C2F18AC0F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60F4375D-0AB2-4CC9-B831-B11C942CA239}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5910" activeTab="2" xr2:uid="{ECCB2694-D164-4B3A-AE22-5621EBECBABC}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Patient_Reg" sheetId="2" r:id="rId2"/>
     <sheet name="Date" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -312,48 +314,6 @@
     <t>First Floor,Door No.492 C R Kote</t>
   </si>
   <si>
-    <t>Siddu11</t>
-  </si>
-  <si>
-    <t>Siddu12</t>
-  </si>
-  <si>
-    <t>Siddu13</t>
-  </si>
-  <si>
-    <t>Siddu14</t>
-  </si>
-  <si>
-    <t>Siddu15</t>
-  </si>
-  <si>
-    <t>Siddu16</t>
-  </si>
-  <si>
-    <t>Siddu17</t>
-  </si>
-  <si>
-    <t>9999999991</t>
-  </si>
-  <si>
-    <t>9999999992</t>
-  </si>
-  <si>
-    <t>9999999993</t>
-  </si>
-  <si>
-    <t>9999999994</t>
-  </si>
-  <si>
-    <t>9999999995</t>
-  </si>
-  <si>
-    <t>9999999996</t>
-  </si>
-  <si>
-    <t>9999999997</t>
-  </si>
-  <si>
     <t>8214194305</t>
   </si>
   <si>
@@ -456,19 +416,121 @@
     <t>2:45</t>
   </si>
   <si>
-    <t>ZBW!6obD</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>1:15</t>
   </si>
   <si>
     <t>1:45</t>
   </si>
   <si>
-    <t>2:00</t>
+    <t>8999999991</t>
+  </si>
+  <si>
+    <t>8999999992</t>
+  </si>
+  <si>
+    <t>8999999993</t>
+  </si>
+  <si>
+    <t>8999999994</t>
+  </si>
+  <si>
+    <t>8999999995</t>
+  </si>
+  <si>
+    <t>8999999996</t>
+  </si>
+  <si>
+    <t>8999999997</t>
+  </si>
+  <si>
+    <t>Siddu21</t>
+  </si>
+  <si>
+    <t>Siddu22</t>
+  </si>
+  <si>
+    <t>Siddu23</t>
+  </si>
+  <si>
+    <t>Siddu24</t>
+  </si>
+  <si>
+    <t>Siddu25</t>
+  </si>
+  <si>
+    <t>Siddu26</t>
+  </si>
+  <si>
+    <t>Siddu27</t>
+  </si>
+  <si>
+    <t>customer details</t>
+  </si>
+  <si>
+    <t>source / paper/online/facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faq 20 </t>
+  </si>
+  <si>
+    <t>prodcut enquiry each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr caegory -pincode </t>
+  </si>
+  <si>
+    <t>sm selections - customer</t>
+  </si>
+  <si>
+    <t>otp validate by dr behalf - separate model</t>
+  </si>
+  <si>
+    <t>call closure</t>
+  </si>
+  <si>
+    <t>reports for client</t>
+  </si>
+  <si>
+    <t>clinic wise</t>
+  </si>
+  <si>
+    <t>by source</t>
+  </si>
+  <si>
+    <t>by city</t>
+  </si>
+  <si>
+    <t>by product</t>
+  </si>
+  <si>
+    <t>by faqs</t>
+  </si>
+  <si>
+    <t>9845009812</t>
+  </si>
+  <si>
+    <t>Admin@123&amp;</t>
+  </si>
+  <si>
+    <t>8776656565</t>
+  </si>
+  <si>
+    <t>9765656565</t>
+  </si>
+  <si>
+    <t>6576565656</t>
+  </si>
+  <si>
+    <t>7777777778</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>07:00</t>
   </si>
 </sst>
 </file>
@@ -849,7 +911,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,15 +940,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Admin@123&amp;" xr:uid="{89010078-2B4E-49DC-B4C5-425EB3BF8E73}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{89010078-2B4E-49DC-B4C5-425EB3BF8E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -898,7 +960,7 @@
   <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,19 +1054,19 @@
         <v>34</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
         <v>59</v>
@@ -1039,19 +1101,19 @@
         <v>33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -1086,19 +1148,19 @@
         <v>35</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
         <v>89</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -1133,19 +1195,19 @@
         <v>36</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
         <v>90</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -1180,19 +1242,19 @@
         <v>37</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>84</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
         <v>91</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
         <v>59</v>
@@ -1227,19 +1289,19 @@
         <v>38</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="M7" t="s">
         <v>92</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
         <v>59</v>
@@ -1274,19 +1336,19 @@
         <v>39</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
         <v>93</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
         <v>59</v>
@@ -1319,7 +1381,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,142 +1396,142 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1485,6 +1547,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B60464-5C9E-4CF2-949E-5B8D33A81AFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B93367-65A6-452C-8538-4438920E97FA}">
   <dimension ref="A2:A34"/>
   <sheetViews>
@@ -1601,62 +1675,146 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350322DF-66F1-4034-9AB4-B38D172886AE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
